--- a/Leaderboards/ME3MP-TCHOF-KirraheAirlines.xlsx
+++ b/Leaderboards/ME3MP-TCHOF-KirraheAirlines.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MEHOF\Leaderboards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322DCA96-2D6C-4F69-8FA5-0D3C7104AC51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C4F1EA-C742-4C74-A566-A31F4A0B10E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27885" windowHeight="18240" xr2:uid="{EC2FB41B-C235-4939-9B29-834639605DAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="18240" xr2:uid="{EC2FB41B-C235-4939-9B29-834639605DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Platinum" sheetId="5" r:id="rId1"/>
@@ -20,7 +15,6 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">PlayerRuns!$A$1:$D$30</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">Gold!$C$1:$F$15</definedName>
-    <definedName name="ExternalData_4" localSheetId="0" hidden="1">Platinum!$C$1:$F$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,28 +24,14 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{009A2E8F-861D-452B-9139-782FD0B955C4}" keepAlive="1" name="Query - Gold" description="Connection to the 'Gold' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Gold;Extended Properties=&quot;&quot;" command="SELECT * FROM [Gold]"/>
-  </connection>
-  <connection id="2" xr16:uid="{DEA06EB4-CC4E-4024-967A-F13A43454842}" keepAlive="1" name="Query - Platinum" description="Connection to the 'Platinum' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Platinum;Extended Properties=&quot;&quot;" command="SELECT * FROM [Platinum]"/>
-  </connection>
-  <connection id="3" xr16:uid="{3F6B5212-85CA-45F0-8F4A-0A16EF1AD492}" keepAlive="1" name="Query - PlayerRuns" description="Connection to the 'PlayerRuns' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=PlayerRuns;Extended Properties=&quot;&quot;" command="SELECT * FROM [PlayerRuns]"/>
-  </connection>
-  <connection id="4" xr16:uid="{CF98A8E2-96B0-4685-A537-111FEE85833D}" keepAlive="1" name="Query - RunsByPlayerFilePath" description="Connection to the 'RunsByPlayerFilePath' query in the workbook." type="5" refreshedVersion="0" background="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=RunsByPlayerFilePath;Extended Properties=&quot;&quot;" command="SELECT * FROM [RunsByPlayerFilePath]"/>
-  </connection>
-</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -199,10 +179,28 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -217,25 +215,7 @@
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -250,67 +230,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_4" connectionId="2" xr16:uid="{3CD24708-A318-4F9B-8699-4EB2CCFA28D9}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="21" unboundColumnsLeft="2" unboundColumnsRight="1">
-    <queryTableFields count="7">
-      <queryTableField id="15" dataBound="0" tableColumnId="15"/>
-      <queryTableField id="17" dataBound="0" tableColumnId="16"/>
-      <queryTableField id="1" name="Player" tableColumnId="1"/>
-      <queryTableField id="18" name="Flight 1" tableColumnId="2"/>
-      <queryTableField id="19" name="Flight 2" tableColumnId="3"/>
-      <queryTableField id="20" name="Flight 3" tableColumnId="4"/>
-      <queryTableField id="14" dataBound="0" tableColumnId="14"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="1" xr16:uid="{C98F1FBB-F01E-418B-BA5A-B9D48982CE02}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="21" unboundColumnsLeft="2" unboundColumnsRight="1">
-    <queryTableFields count="7">
-      <queryTableField id="15" dataBound="0" tableColumnId="16"/>
-      <queryTableField id="17" dataBound="0" tableColumnId="17"/>
-      <queryTableField id="1" name="Player" tableColumnId="1"/>
-      <queryTableField id="18" name="Flight 1" tableColumnId="2"/>
-      <queryTableField id="19" name="Flight 2" tableColumnId="3"/>
-      <queryTableField id="20" name="Flight 3" tableColumnId="4"/>
-      <queryTableField id="14" dataBound="0" tableColumnId="15"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="3" xr16:uid="{1D7BC7ED-C2E9-4592-98A1-86A117723AF4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
-      <queryTableField id="1" name="Alt" tableColumnId="1"/>
-      <queryTableField id="2" name="Difficulty" tableColumnId="2"/>
-      <queryTableField id="3" name="Player" tableColumnId="3"/>
-      <queryTableField id="4" name="Best Time" tableColumnId="4"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E27852B8-A00A-472D-A3A8-A16366BF6688}" name="Platinum" displayName="Platinum" ref="A1:G11" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E27852B8-A00A-472D-A3A8-A16366BF6688}" name="Platinum" displayName="Platinum" ref="A1:G11" totalsRowShown="0">
   <autoFilter ref="A1:G11" xr:uid="{0D005211-E1B7-49BB-8DD1-A014C7F6D1BA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition descending="1" ref="G1:G11"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="15" xr3:uid="{D034307A-EBE4-4D40-A718-DB44B2E732DA}" uniqueName="15" name="Time" queryTableFieldId="15" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{D034307A-EBE4-4D40-A718-DB44B2E732DA}" name="Time" dataDxfId="12">
       <calculatedColumnFormula>SUM(Platinum[[#This Row],[Flight 1]:[Flight 3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{018B8C66-B855-4EAD-9BEE-49C8DA8F0694}" uniqueName="16" name=" - " queryTableFieldId="17" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{1B75CE0C-F707-4427-8E25-96EC5B5AD2B1}" uniqueName="1" name="Player" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A46B0AC1-297E-44D6-A6AD-0F34CC93E02E}" uniqueName="2" name="Flight 1" queryTableFieldId="18"/>
-    <tableColumn id="3" xr3:uid="{B590702E-3B1A-4FCA-9768-9E4E0784C02F}" uniqueName="3" name="Flight 2" queryTableFieldId="19"/>
-    <tableColumn id="4" xr3:uid="{37955B29-08FF-48D0-A44B-55EB1411FF60}" uniqueName="4" name="Flight 3" queryTableFieldId="20"/>
-    <tableColumn id="14" xr3:uid="{363F3039-61F9-4999-A09E-85D4AC90CDD3}" uniqueName="14" name="Count" queryTableFieldId="14" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{018B8C66-B855-4EAD-9BEE-49C8DA8F0694}" name=" - " dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{1B75CE0C-F707-4427-8E25-96EC5B5AD2B1}" name="Player" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A46B0AC1-297E-44D6-A6AD-0F34CC93E02E}" name="Flight 1"/>
+    <tableColumn id="3" xr3:uid="{B590702E-3B1A-4FCA-9768-9E4E0784C02F}" name="Flight 2"/>
+    <tableColumn id="4" xr3:uid="{37955B29-08FF-48D0-A44B-55EB1411FF60}" name="Flight 3"/>
+    <tableColumn id="14" xr3:uid="{363F3039-61F9-4999-A09E-85D4AC90CDD3}" name="Count" dataDxfId="9">
       <calculatedColumnFormula>COUNT(Platinum[[#This Row],[Flight 1]:[Flight 3]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -319,21 +254,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{193C9D78-94AA-4F46-A609-A8192B86BAAA}" name="Gold" displayName="Gold" ref="A1:G15" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{193C9D78-94AA-4F46-A609-A8192B86BAAA}" name="Gold" displayName="Gold" ref="A1:G15" totalsRowShown="0">
   <autoFilter ref="A1:G15" xr:uid="{72124CCF-FDC8-492D-ACF5-0CC11F66F146}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
     <sortCondition descending="1" ref="G1:G15"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="16" xr3:uid="{3CB93ADF-E715-4648-9B86-DAAA571D153E}" uniqueName="16" name="Time" queryTableFieldId="15" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{3CB93ADF-E715-4648-9B86-DAAA571D153E}" name="Time" dataDxfId="8">
       <calculatedColumnFormula>SUM(Gold[[#This Row],[Flight 1]:[Flight 3]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{E8755FDA-71CE-41B9-B3E4-E5332210D7B1}" uniqueName="17" name=" - " queryTableFieldId="17" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{C5588C77-8735-41B7-ADAE-07F72CDF5DE5}" uniqueName="1" name="Player" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{43677ECB-A49B-44A4-B76E-34EC2EDA4B4F}" uniqueName="2" name="Flight 1" queryTableFieldId="18" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0B67B099-2674-4C60-91B8-2070ABB9FD0B}" uniqueName="3" name="Flight 2" queryTableFieldId="19" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{FAA69F3C-FAF2-49B9-969A-AA5E96C43C5C}" uniqueName="4" name="Flight 3" queryTableFieldId="20"/>
-    <tableColumn id="15" xr3:uid="{BCD1D78A-C197-4291-B3FF-B4131DC076ED}" uniqueName="15" name="Count" queryTableFieldId="14" dataDxfId="3">
+    <tableColumn id="17" xr3:uid="{E8755FDA-71CE-41B9-B3E4-E5332210D7B1}" name=" - " dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C5588C77-8735-41B7-ADAE-07F72CDF5DE5}" name="Player" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{43677ECB-A49B-44A4-B76E-34EC2EDA4B4F}" name="Flight 1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0B67B099-2674-4C60-91B8-2070ABB9FD0B}" name="Flight 2" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FAA69F3C-FAF2-49B9-969A-AA5E96C43C5C}" name="Flight 3"/>
+    <tableColumn id="15" xr3:uid="{BCD1D78A-C197-4291-B3FF-B4131DC076ED}" name="Count" dataDxfId="3">
       <calculatedColumnFormula>COUNT(Gold[[#This Row],[Flight 1]:[Flight 3]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -342,13 +277,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AFEA1CE-5655-44FC-902C-0003022E5137}" name="PlayerRuns" displayName="PlayerRuns" ref="A1:D30" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AFEA1CE-5655-44FC-902C-0003022E5137}" name="PlayerRuns" displayName="PlayerRuns" ref="A1:D30" totalsRowShown="0">
   <autoFilter ref="A1:D30" xr:uid="{1B76480F-3CAA-4AA4-9AB0-4F3133FE44BD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2E45E284-5E78-426E-8974-27B0C1FF6E7E}" uniqueName="1" name="Alt" queryTableFieldId="1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{32D31F83-3689-4140-9CA6-05AD83931F09}" uniqueName="2" name="Difficulty" queryTableFieldId="2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2A4E9D4B-F7AD-47AB-B640-F4F5B2A16EC0}" uniqueName="3" name="Player" queryTableFieldId="3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2CDE4CD5-DF99-447A-89D1-3180B0D2ABFC}" uniqueName="4" name="Best Time" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{2E45E284-5E78-426E-8974-27B0C1FF6E7E}" name="Alt" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{32D31F83-3689-4140-9CA6-05AD83931F09}" name="Difficulty" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2A4E9D4B-F7AD-47AB-B640-F4F5B2A16EC0}" name="Player" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{2CDE4CD5-DF99-447A-89D1-3180B0D2ABFC}" name="Best Time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -899,8 +834,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1240,8 +1176,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1684,8 +1621,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
